--- a/part4/tables-4/dom_validty_VER_part-4.xlsx
+++ b/part4/tables-4/dom_validty_VER_part-4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="7">
   <si>
     <t>Test ID</t>
   </si>
@@ -420,7 +420,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -429,15 +429,15 @@
         <v>0.001723</v>
       </c>
       <c r="D2">
-        <v>0.004046</v>
+        <v>0.001127</v>
       </c>
       <c r="F2">
-        <v>-1.348512</v>
+        <v>0.345892</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -446,15 +446,15 @@
         <v>0.00079</v>
       </c>
       <c r="D3">
-        <v>0.000936</v>
+        <v>0.00051</v>
       </c>
       <c r="F3">
-        <v>-0.185518</v>
+        <v>0.354424</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -463,15 +463,15 @@
         <v>0.000359</v>
       </c>
       <c r="D4">
-        <v>0.000185</v>
+        <v>0.000224</v>
       </c>
       <c r="F4">
-        <v>0.48472</v>
+        <v>0.376879</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
@@ -480,15 +480,15 @@
         <v>0.000188</v>
       </c>
       <c r="D5">
-        <v>4.6E-05</v>
+        <v>0.000129</v>
       </c>
       <c r="F5">
-        <v>0.754325</v>
+        <v>0.311087</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -497,15 +497,15 @@
         <v>0.002414</v>
       </c>
       <c r="D6">
-        <v>0.004431</v>
+        <v>0.001863</v>
       </c>
       <c r="F6">
-        <v>-0.8352889999999999</v>
+        <v>0.228433</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
@@ -514,15 +514,15 @@
         <v>0.001512</v>
       </c>
       <c r="D7">
-        <v>0.001151</v>
+        <v>0.001065</v>
       </c>
       <c r="F7">
-        <v>0.238793</v>
+        <v>0.295933</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
@@ -531,15 +531,15 @@
         <v>0.000821</v>
       </c>
       <c r="D8">
-        <v>0.000482</v>
+        <v>0.00056</v>
       </c>
       <c r="F8">
-        <v>0.412864</v>
+        <v>0.317607</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
@@ -548,15 +548,15 @@
         <v>0.000418</v>
       </c>
       <c r="D9">
-        <v>6.999999999999999E-05</v>
+        <v>0.000236</v>
       </c>
       <c r="F9">
-        <v>0.833688</v>
+        <v>0.436236</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
@@ -565,15 +565,15 @@
         <v>0.000177</v>
       </c>
       <c r="D10">
-        <v>2E-05</v>
+        <v>0.000123</v>
       </c>
       <c r="F10">
-        <v>0.88695</v>
+        <v>0.305964</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
@@ -582,15 +582,15 @@
         <v>0.002369</v>
       </c>
       <c r="D11">
-        <v>0.001921</v>
+        <v>0.002169</v>
       </c>
       <c r="F11">
-        <v>0.188985</v>
+        <v>0.084326</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
@@ -599,15 +599,15 @@
         <v>0.001196</v>
       </c>
       <c r="D12">
-        <v>0.00048</v>
+        <v>0.000874</v>
       </c>
       <c r="F12">
-        <v>0.5987170000000001</v>
+        <v>0.268566</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
@@ -616,15 +616,15 @@
         <v>0.000583</v>
       </c>
       <c r="D13">
-        <v>0.000114</v>
+        <v>0.000375</v>
       </c>
       <c r="F13">
-        <v>0.804824</v>
+        <v>0.357477</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
@@ -633,15 +633,15 @@
         <v>0.000219</v>
       </c>
       <c r="D14">
-        <v>2.5E-05</v>
+        <v>0.000179</v>
       </c>
       <c r="F14">
-        <v>0.883506</v>
+        <v>0.181943</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
         <v>6</v>
@@ -650,15 +650,15 @@
         <v>0.000138</v>
       </c>
       <c r="D15">
-        <v>1.3E-05</v>
+        <v>0.000112</v>
       </c>
       <c r="F15">
-        <v>0.905419</v>
+        <v>0.184039</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
         <v>6</v>
@@ -667,15 +667,15 @@
         <v>0.001442</v>
       </c>
       <c r="D16">
-        <v>0.000531</v>
+        <v>0.001026</v>
       </c>
       <c r="F16">
-        <v>0.631375</v>
+        <v>0.288019</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
@@ -684,15 +684,15 @@
         <v>0.0009859999999999999</v>
       </c>
       <c r="D17">
-        <v>0.00016</v>
+        <v>0.000505</v>
       </c>
       <c r="F17">
-        <v>0.837682</v>
+        <v>0.488277</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
@@ -701,15 +701,15 @@
         <v>0.0005330000000000001</v>
       </c>
       <c r="D18">
-        <v>4.7E-05</v>
+        <v>0.000249</v>
       </c>
       <c r="F18">
-        <v>0.912668</v>
+        <v>0.533085</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
@@ -718,15 +718,15 @@
         <v>0.000253</v>
       </c>
       <c r="D19">
-        <v>1.7E-05</v>
+        <v>0.000149</v>
       </c>
       <c r="F19">
-        <v>0.930951</v>
+        <v>0.412902</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B20" t="s">
         <v>6</v>
@@ -735,15 +735,15 @@
         <v>0.002366</v>
       </c>
       <c r="D20">
-        <v>0.000776</v>
+        <v>0.001465</v>
       </c>
       <c r="F20">
-        <v>0.671924</v>
+        <v>0.380788</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B21" t="s">
         <v>6</v>
@@ -752,15 +752,15 @@
         <v>0.001208</v>
       </c>
       <c r="D21">
-        <v>0.000247</v>
+        <v>0.000745</v>
       </c>
       <c r="F21">
-        <v>0.795127</v>
+        <v>0.382966</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B22" t="s">
         <v>6</v>
@@ -769,15 +769,15 @@
         <v>0.0007</v>
       </c>
       <c r="D22">
-        <v>8.3E-05</v>
+        <v>0.000356</v>
       </c>
       <c r="F22">
-        <v>0.881012</v>
+        <v>0.49141</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>6</v>
@@ -786,15 +786,15 @@
         <v>0.000332</v>
       </c>
       <c r="D23">
-        <v>3.1E-05</v>
+        <v>0.000211</v>
       </c>
       <c r="F23">
-        <v>0.907517</v>
+        <v>0.364557</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
         <v>6</v>
@@ -803,15 +803,15 @@
         <v>0.002846</v>
       </c>
       <c r="D24">
-        <v>0.001213</v>
+        <v>0.002099</v>
       </c>
       <c r="F24">
-        <v>0.573648</v>
+        <v>0.262448</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B25" t="s">
         <v>6</v>
@@ -820,15 +820,15 @@
         <v>0.001858</v>
       </c>
       <c r="D25">
-        <v>0.000482</v>
+        <v>0.001163</v>
       </c>
       <c r="F25">
-        <v>0.740625</v>
+        <v>0.374142</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B26" t="s">
         <v>6</v>
@@ -837,15 +837,15 @@
         <v>0.001024</v>
       </c>
       <c r="D26">
-        <v>0.000201</v>
+        <v>0.0006489999999999999</v>
       </c>
       <c r="F26">
-        <v>0.803412</v>
+        <v>0.366502</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B27" t="s">
         <v>6</v>
@@ -854,15 +854,15 @@
         <v>0.000489</v>
       </c>
       <c r="D27">
-        <v>8.3E-05</v>
+        <v>0.00037</v>
       </c>
       <c r="F27">
-        <v>0.830555</v>
+        <v>0.244377</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B28" t="s">
         <v>6</v>
@@ -871,15 +871,15 @@
         <v>0.001752</v>
       </c>
       <c r="D28">
-        <v>0.004046</v>
+        <v>0.001127</v>
       </c>
       <c r="F28">
-        <v>-1.308662</v>
+        <v>0.356991</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B29" t="s">
         <v>6</v>
@@ -888,15 +888,15 @@
         <v>0.000843</v>
       </c>
       <c r="D29">
-        <v>0.000936</v>
+        <v>0.00051</v>
       </c>
       <c r="F29">
-        <v>-0.109847</v>
+        <v>0.395631</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B30" t="s">
         <v>6</v>
@@ -905,15 +905,15 @@
         <v>0.000341</v>
       </c>
       <c r="D30">
-        <v>0.000185</v>
+        <v>0.000224</v>
       </c>
       <c r="F30">
-        <v>0.457599</v>
+        <v>0.344083</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B31" t="s">
         <v>6</v>
@@ -922,15 +922,15 @@
         <v>0.000186</v>
       </c>
       <c r="D31">
-        <v>4.6E-05</v>
+        <v>0.000129</v>
       </c>
       <c r="F31">
-        <v>0.752295</v>
+        <v>0.305393</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B32" t="s">
         <v>6</v>
@@ -939,15 +939,15 @@
         <v>0.002357</v>
       </c>
       <c r="D32">
-        <v>0.004431</v>
+        <v>0.001863</v>
       </c>
       <c r="F32">
-        <v>-0.880055</v>
+        <v>0.209613</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B33" t="s">
         <v>6</v>
@@ -956,15 +956,15 @@
         <v>0.001507</v>
       </c>
       <c r="D33">
-        <v>0.001151</v>
+        <v>0.001065</v>
       </c>
       <c r="F33">
-        <v>0.236006</v>
+        <v>0.293355</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B34" t="s">
         <v>6</v>
@@ -973,15 +973,15 @@
         <v>0.000783</v>
       </c>
       <c r="D34">
-        <v>0.000482</v>
+        <v>0.00056</v>
       </c>
       <c r="F34">
-        <v>0.384592</v>
+        <v>0.284749</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B35" t="s">
         <v>6</v>
@@ -990,15 +990,15 @@
         <v>0.000381</v>
       </c>
       <c r="D35">
-        <v>6.999999999999999E-05</v>
+        <v>0.000236</v>
       </c>
       <c r="F35">
-        <v>0.817217</v>
+        <v>0.380402</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B36" t="s">
         <v>6</v>
@@ -1007,15 +1007,15 @@
         <v>0.000188</v>
       </c>
       <c r="D36">
-        <v>2E-05</v>
+        <v>0.000123</v>
       </c>
       <c r="F36">
-        <v>0.8933219999999999</v>
+        <v>0.345084</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B37" t="s">
         <v>6</v>
@@ -1024,15 +1024,15 @@
         <v>0.002376</v>
       </c>
       <c r="D37">
-        <v>0.001921</v>
+        <v>0.002169</v>
       </c>
       <c r="F37">
-        <v>0.191668</v>
+        <v>0.087355</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B38" t="s">
         <v>6</v>
@@ -1041,15 +1041,15 @@
         <v>0.00121</v>
       </c>
       <c r="D38">
-        <v>0.00048</v>
+        <v>0.000874</v>
       </c>
       <c r="F38">
-        <v>0.603552</v>
+        <v>0.277378</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B39" t="s">
         <v>6</v>
@@ -1058,15 +1058,15 @@
         <v>0.000583</v>
       </c>
       <c r="D39">
-        <v>0.000114</v>
+        <v>0.000375</v>
       </c>
       <c r="F39">
-        <v>0.804824</v>
+        <v>0.357477</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B40" t="s">
         <v>6</v>
@@ -1075,15 +1075,15 @@
         <v>0.000219</v>
       </c>
       <c r="D40">
-        <v>2.5E-05</v>
+        <v>0.000179</v>
       </c>
       <c r="F40">
-        <v>0.883506</v>
+        <v>0.181943</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B41" t="s">
         <v>6</v>
@@ -1092,15 +1092,15 @@
         <v>0.00014</v>
       </c>
       <c r="D41">
-        <v>1.3E-05</v>
+        <v>0.000112</v>
       </c>
       <c r="F41">
-        <v>0.907108</v>
+        <v>0.19861</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B42" t="s">
         <v>6</v>
@@ -1109,15 +1109,15 @@
         <v>0.001442</v>
       </c>
       <c r="D42">
-        <v>0.000531</v>
+        <v>0.001026</v>
       </c>
       <c r="F42">
-        <v>0.631375</v>
+        <v>0.288019</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B43" t="s">
         <v>6</v>
@@ -1126,15 +1126,15 @@
         <v>0.000973</v>
       </c>
       <c r="D43">
-        <v>0.00016</v>
+        <v>0.000505</v>
       </c>
       <c r="F43">
-        <v>0.835459</v>
+        <v>0.481267</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B44" t="s">
         <v>6</v>
@@ -1143,15 +1143,15 @@
         <v>0.0005330000000000001</v>
       </c>
       <c r="D44">
-        <v>4.7E-05</v>
+        <v>0.000249</v>
       </c>
       <c r="F44">
-        <v>0.912668</v>
+        <v>0.533085</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B45" t="s">
         <v>6</v>
@@ -1160,15 +1160,15 @@
         <v>0.00024</v>
       </c>
       <c r="D45">
-        <v>1.7E-05</v>
+        <v>0.000149</v>
       </c>
       <c r="F45">
-        <v>0.927115</v>
+        <v>0.380285</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B46" t="s">
         <v>6</v>
@@ -1177,15 +1177,15 @@
         <v>0.002333</v>
       </c>
       <c r="D46">
-        <v>0.000776</v>
+        <v>0.001465</v>
       </c>
       <c r="F46">
-        <v>0.667277</v>
+        <v>0.372016</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B47" t="s">
         <v>6</v>
@@ -1194,15 +1194,15 @@
         <v>0.00128</v>
       </c>
       <c r="D47">
-        <v>0.000247</v>
+        <v>0.000745</v>
       </c>
       <c r="F47">
-        <v>0.806621</v>
+        <v>0.417584</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B48" t="s">
         <v>6</v>
@@ -1211,15 +1211,15 @@
         <v>0.000675</v>
       </c>
       <c r="D48">
-        <v>8.3E-05</v>
+        <v>0.000356</v>
       </c>
       <c r="F48">
-        <v>0.876685</v>
+        <v>0.472916</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B49" t="s">
         <v>6</v>
@@ -1228,15 +1228,15 @@
         <v>0.000307</v>
       </c>
       <c r="D49">
-        <v>3.1E-05</v>
+        <v>0.000211</v>
       </c>
       <c r="F49">
-        <v>0.900118</v>
+        <v>0.313721</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B50" t="s">
         <v>6</v>
@@ -1245,15 +1245,15 @@
         <v>0.002852</v>
       </c>
       <c r="D50">
-        <v>0.001213</v>
+        <v>0.002099</v>
       </c>
       <c r="F50">
-        <v>0.574565</v>
+        <v>0.264034</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B51" t="s">
         <v>6</v>
@@ -1262,15 +1262,15 @@
         <v>0.001836</v>
       </c>
       <c r="D51">
-        <v>0.000482</v>
+        <v>0.001163</v>
       </c>
       <c r="F51">
-        <v>0.737409</v>
+        <v>0.366382</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B52" t="s">
         <v>6</v>
@@ -1279,15 +1279,15 @@
         <v>0.0009790000000000001</v>
       </c>
       <c r="D52">
-        <v>0.000201</v>
+        <v>0.0006489999999999999</v>
       </c>
       <c r="F52">
-        <v>0.794268</v>
+        <v>0.337037</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B53" t="s">
         <v>6</v>
@@ -1296,15 +1296,15 @@
         <v>0.000467</v>
       </c>
       <c r="D53">
-        <v>8.3E-05</v>
+        <v>0.00037</v>
       </c>
       <c r="F53">
-        <v>0.822289</v>
+        <v>0.207517</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B54" t="s">
         <v>6</v>
@@ -1313,15 +1313,15 @@
         <v>0.001937</v>
       </c>
       <c r="D54">
-        <v>0.005064</v>
+        <v>0.001373</v>
       </c>
       <c r="F54">
-        <v>-1.614427</v>
+        <v>0.290977</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B55" t="s">
         <v>6</v>
@@ -1330,15 +1330,15 @@
         <v>0.000802</v>
       </c>
       <c r="D55">
-        <v>0.001209</v>
+        <v>0.000585</v>
       </c>
       <c r="F55">
-        <v>-0.50802</v>
+        <v>0.269913</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B56" t="s">
         <v>6</v>
@@ -1347,15 +1347,15 @@
         <v>0.000353</v>
       </c>
       <c r="D56">
-        <v>0.000238</v>
+        <v>0.000253</v>
       </c>
       <c r="F56">
-        <v>0.327681</v>
+        <v>0.283555</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B57" t="s">
         <v>6</v>
@@ -1364,15 +1364,15 @@
         <v>0.000159</v>
       </c>
       <c r="D57">
-        <v>5.7E-05</v>
+        <v>0.000148</v>
       </c>
       <c r="F57">
-        <v>0.643825</v>
+        <v>0.069409</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B58" t="s">
         <v>6</v>
@@ -1381,15 +1381,15 @@
         <v>0.002717</v>
       </c>
       <c r="D58">
-        <v>0.005481</v>
+        <v>0.002145</v>
       </c>
       <c r="F58">
-        <v>-1.016936</v>
+        <v>0.210765</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B59" t="s">
         <v>6</v>
@@ -1398,15 +1398,15 @@
         <v>0.001656</v>
       </c>
       <c r="D59">
-        <v>0.00147</v>
+        <v>0.001231</v>
       </c>
       <c r="F59">
-        <v>0.112173</v>
+        <v>0.256847</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B60" t="s">
         <v>6</v>
@@ -1415,15 +1415,15 @@
         <v>0.000879</v>
       </c>
       <c r="D60">
-        <v>0.00059</v>
+        <v>0.000625</v>
       </c>
       <c r="F60">
-        <v>0.329232</v>
+        <v>0.289478</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B61" t="s">
         <v>6</v>
@@ -1432,15 +1432,15 @@
         <v>0.000424</v>
       </c>
       <c r="D61">
-        <v>8.7E-05</v>
+        <v>0.000261</v>
       </c>
       <c r="F61">
-        <v>0.795894</v>
+        <v>0.384268</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B62" t="s">
         <v>6</v>
@@ -1449,15 +1449,15 @@
         <v>0.000165</v>
       </c>
       <c r="D62">
-        <v>2.4E-05</v>
+        <v>0.000135</v>
       </c>
       <c r="F62">
-        <v>0.855442</v>
+        <v>0.184846</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B63" t="s">
         <v>6</v>
@@ -1466,15 +1466,15 @@
         <v>0.002532</v>
       </c>
       <c r="D63">
-        <v>0.002313</v>
+        <v>0.002422</v>
       </c>
       <c r="F63">
-        <v>0.086204</v>
+        <v>0.04316</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B64" t="s">
         <v>6</v>
@@ -1483,15 +1483,15 @@
         <v>0.001355</v>
       </c>
       <c r="D64">
-        <v>0.0005910000000000001</v>
+        <v>0.000987</v>
       </c>
       <c r="F64">
-        <v>0.56415</v>
+        <v>0.271617</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B65" t="s">
         <v>6</v>
@@ -1500,15 +1500,15 @@
         <v>0.000603</v>
       </c>
       <c r="D65">
-        <v>0.00014</v>
+        <v>0.000423</v>
       </c>
       <c r="F65">
-        <v>0.768243</v>
+        <v>0.298816</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B66" t="s">
         <v>6</v>
@@ -1517,15 +1517,15 @@
         <v>0.000239</v>
       </c>
       <c r="D66">
-        <v>3.1E-05</v>
+        <v>0.000191</v>
       </c>
       <c r="F66">
-        <v>0.872152</v>
+        <v>0.197764</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B67" t="s">
         <v>6</v>
@@ -1534,15 +1534,15 @@
         <v>0.000156</v>
       </c>
       <c r="D67">
-        <v>1.5E-05</v>
+        <v>0.000128</v>
       </c>
       <c r="F67">
-        <v>0.905025</v>
+        <v>0.17931</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B68" t="s">
         <v>6</v>
@@ -1551,15 +1551,15 @@
         <v>0.001661</v>
       </c>
       <c r="D68">
-        <v>0.000654</v>
+        <v>0.001153</v>
       </c>
       <c r="F68">
-        <v>0.605944</v>
+        <v>0.305785</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B69" t="s">
         <v>6</v>
@@ -1568,15 +1568,15 @@
         <v>0.001039</v>
       </c>
       <c r="D69">
-        <v>0.000194</v>
+        <v>0.000567</v>
       </c>
       <c r="F69">
-        <v>0.813126</v>
+        <v>0.454762</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B70" t="s">
         <v>6</v>
@@ -1585,15 +1585,15 @@
         <v>0.000595</v>
       </c>
       <c r="D70">
-        <v>5.5E-05</v>
+        <v>0.000269</v>
       </c>
       <c r="F70">
-        <v>0.9071399999999999</v>
+        <v>0.548994</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B71" t="s">
         <v>6</v>
@@ -1602,15 +1602,15 @@
         <v>0.000307</v>
       </c>
       <c r="D71">
-        <v>2E-05</v>
+        <v>0.000164</v>
       </c>
       <c r="F71">
-        <v>0.934607</v>
+        <v>0.464611</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B72" t="s">
         <v>6</v>
@@ -1619,15 +1619,15 @@
         <v>0.002571</v>
       </c>
       <c r="D72">
-        <v>0.000927</v>
+        <v>0.001632</v>
       </c>
       <c r="F72">
-        <v>0.6394300000000001</v>
+        <v>0.365221</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B73" t="s">
         <v>6</v>
@@ -1636,15 +1636,15 @@
         <v>0.001468</v>
       </c>
       <c r="D73">
-        <v>0.000295</v>
+        <v>0.000826</v>
       </c>
       <c r="F73">
-        <v>0.798934</v>
+        <v>0.437339</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B74" t="s">
         <v>6</v>
@@ -1653,15 +1653,15 @@
         <v>0.0008140000000000001</v>
       </c>
       <c r="D74">
-        <v>9.8E-05</v>
+        <v>0.000392</v>
       </c>
       <c r="F74">
-        <v>0.880122</v>
+        <v>0.518362</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B75" t="s">
         <v>6</v>
@@ -1670,15 +1670,15 @@
         <v>0.000385</v>
       </c>
       <c r="D75">
-        <v>3.5E-05</v>
+        <v>0.000229</v>
       </c>
       <c r="F75">
-        <v>0.909251</v>
+        <v>0.403826</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B76" t="s">
         <v>6</v>
@@ -1687,15 +1687,15 @@
         <v>0.00319</v>
       </c>
       <c r="D76">
-        <v>0.001432</v>
+        <v>0.002315</v>
       </c>
       <c r="F76">
-        <v>0.551084</v>
+        <v>0.274236</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B77" t="s">
         <v>6</v>
@@ -1704,15 +1704,15 @@
         <v>0.002046</v>
       </c>
       <c r="D77">
-        <v>0.000563</v>
+        <v>0.001275</v>
       </c>
       <c r="F77">
-        <v>0.7245780000000001</v>
+        <v>0.376725</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B78" t="s">
         <v>6</v>
@@ -1721,15 +1721,15 @@
         <v>0.00119</v>
       </c>
       <c r="D78">
-        <v>0.000232</v>
+        <v>0.0007159999999999999</v>
       </c>
       <c r="F78">
-        <v>0.805517</v>
+        <v>0.398705</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B79" t="s">
         <v>6</v>
@@ -1738,29 +1738,32 @@
         <v>0.000603</v>
       </c>
       <c r="D79">
-        <v>9.3E-05</v>
+        <v>0.000394</v>
       </c>
       <c r="F79">
-        <v>0.845271</v>
+        <v>0.345865</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80">
-        <v>79</v>
+        <v>81</v>
+      </c>
+      <c r="B80" t="s">
+        <v>6</v>
       </c>
       <c r="C80">
         <v>0.001494</v>
       </c>
       <c r="D80">
-        <v>0.003937</v>
+        <v>0.001282</v>
       </c>
       <c r="F80">
-        <v>-1.635404</v>
+        <v>0.141996</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81" t="s">
         <v>6</v>
@@ -1769,15 +1772,15 @@
         <v>0.000687</v>
       </c>
       <c r="D81">
-        <v>0.000826</v>
+        <v>0.000479</v>
       </c>
       <c r="F81">
-        <v>-0.201535</v>
+        <v>0.303096</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82" t="s">
         <v>6</v>
@@ -1786,15 +1789,15 @@
         <v>0.000359</v>
       </c>
       <c r="D82">
-        <v>0.000166</v>
+        <v>0.000261</v>
       </c>
       <c r="F82">
-        <v>0.53816</v>
+        <v>0.271342</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B83" t="s">
         <v>6</v>
@@ -1803,29 +1806,32 @@
         <v>0.002438</v>
       </c>
       <c r="D83">
-        <v>0.004612</v>
+        <v>0.002377</v>
       </c>
       <c r="F83">
-        <v>-0.892022</v>
+        <v>0.024718</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84">
-        <v>84</v>
+        <v>86</v>
+      </c>
+      <c r="B84" t="s">
+        <v>6</v>
       </c>
       <c r="C84">
         <v>0.001313</v>
       </c>
       <c r="D84">
-        <v>0.001543</v>
+        <v>0.001059</v>
       </c>
       <c r="F84">
-        <v>-0.175484</v>
+        <v>0.193447</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B85" t="s">
         <v>6</v>
@@ -1834,15 +1840,15 @@
         <v>0.000696</v>
       </c>
       <c r="D85">
-        <v>0.000254</v>
+        <v>0.000451</v>
       </c>
       <c r="F85">
-        <v>0.63593</v>
+        <v>0.351856</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B86" t="s">
         <v>6</v>
@@ -1851,15 +1857,15 @@
         <v>0.000348</v>
       </c>
       <c r="D86">
-        <v>5.9E-05</v>
+        <v>0.000213</v>
       </c>
       <c r="F86">
-        <v>0.830471</v>
+        <v>0.388839</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B87" t="s">
         <v>6</v>
@@ -1868,15 +1874,15 @@
         <v>0.003559</v>
       </c>
       <c r="D87">
-        <v>0.005521</v>
+        <v>0.004004</v>
       </c>
       <c r="F87">
-        <v>-0.551269</v>
+        <v>-0.125056</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B88" t="s">
         <v>6</v>
@@ -1885,15 +1891,15 @@
         <v>0.001845</v>
       </c>
       <c r="D88">
-        <v>0.00158</v>
+        <v>0.001741</v>
       </c>
       <c r="F88">
-        <v>0.143371</v>
+        <v>0.056538</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B89" t="s">
         <v>6</v>
@@ -1902,15 +1908,15 @@
         <v>0.000922</v>
       </c>
       <c r="D89">
-        <v>0.000377</v>
+        <v>0.000744</v>
       </c>
       <c r="F89">
-        <v>0.591704</v>
+        <v>0.19336</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B90" t="s">
         <v>6</v>
@@ -1919,15 +1925,15 @@
         <v>0.000437</v>
       </c>
       <c r="D90">
-        <v>7.6E-05</v>
+        <v>0.000287</v>
       </c>
       <c r="F90">
-        <v>0.825749</v>
+        <v>0.343624</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B91" t="s">
         <v>6</v>
@@ -1936,15 +1942,15 @@
         <v>0.000267</v>
       </c>
       <c r="D91">
-        <v>3E-05</v>
+        <v>0.000209</v>
       </c>
       <c r="F91">
-        <v>0.888726</v>
+        <v>0.217197</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B92" t="s">
         <v>6</v>
@@ -1953,15 +1959,15 @@
         <v>0.002563</v>
       </c>
       <c r="D92">
-        <v>0.00176</v>
+        <v>0.001978</v>
       </c>
       <c r="F92">
-        <v>0.313382</v>
+        <v>0.228291</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B93" t="s">
         <v>6</v>
@@ -1970,15 +1976,15 @@
         <v>0.001443</v>
       </c>
       <c r="D93">
-        <v>0.000492</v>
+        <v>0.000961</v>
       </c>
       <c r="F93">
-        <v>0.658972</v>
+        <v>0.334152</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B94" t="s">
         <v>6</v>
@@ -1987,15 +1993,15 @@
         <v>0.000821</v>
       </c>
       <c r="D94">
-        <v>0.00013</v>
+        <v>0.000445</v>
       </c>
       <c r="F94">
-        <v>0.842004</v>
+        <v>0.457882</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B95" t="s">
         <v>6</v>
@@ -2004,15 +2010,15 @@
         <v>0.0004</v>
       </c>
       <c r="D95">
-        <v>4.1E-05</v>
+        <v>0.000233</v>
       </c>
       <c r="F95">
-        <v>0.898311</v>
+        <v>0.417593</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B96" t="s">
         <v>6</v>
@@ -2021,15 +2027,15 @@
         <v>0.003058</v>
       </c>
       <c r="D96">
-        <v>0.002139</v>
+        <v>0.00265</v>
       </c>
       <c r="F96">
-        <v>0.300558</v>
+        <v>0.133704</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B97" t="s">
         <v>6</v>
@@ -2038,15 +2044,15 @@
         <v>0.001922</v>
       </c>
       <c r="D97">
-        <v>0.0006890000000000001</v>
+        <v>0.001327</v>
       </c>
       <c r="F97">
-        <v>0.641593</v>
+        <v>0.309444</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B98" t="s">
         <v>6</v>
@@ -2055,15 +2061,15 @@
         <v>0.001104</v>
       </c>
       <c r="D98">
-        <v>0.000213</v>
+        <v>0.000669</v>
       </c>
       <c r="F98">
-        <v>0.806617</v>
+        <v>0.394405</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B99" t="s">
         <v>6</v>
@@ -2072,15 +2078,15 @@
         <v>0.000532</v>
       </c>
       <c r="D99">
-        <v>6.8E-05</v>
+        <v>0.00032</v>
       </c>
       <c r="F99">
-        <v>0.87205</v>
+        <v>0.397235</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B100" t="s">
         <v>6</v>
@@ -2089,15 +2095,15 @@
         <v>0.003851</v>
       </c>
       <c r="D100">
-        <v>0.003135</v>
+        <v>0.003537</v>
       </c>
       <c r="F100">
-        <v>0.185751</v>
+        <v>0.0813</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B101" t="s">
         <v>6</v>
@@ -2106,15 +2112,15 @@
         <v>0.00258</v>
       </c>
       <c r="D101">
-        <v>0.001192</v>
+        <v>0.001991</v>
       </c>
       <c r="F101">
-        <v>0.537951</v>
+        <v>0.228208</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B102" t="s">
         <v>6</v>
@@ -2123,15 +2129,15 @@
         <v>0.001592</v>
       </c>
       <c r="D102">
-        <v>0.000459</v>
+        <v>0.001086</v>
       </c>
       <c r="F102">
-        <v>0.711692</v>
+        <v>0.317678</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B103" t="s">
         <v>6</v>
@@ -2140,15 +2146,15 @@
         <v>0.000796</v>
       </c>
       <c r="D103">
-        <v>0.000169</v>
+        <v>0.000556</v>
       </c>
       <c r="F103">
-        <v>0.7870549999999999</v>
+        <v>0.300995</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B104" t="s">
         <v>6</v>
@@ -2157,15 +2163,15 @@
         <v>0.001189</v>
       </c>
       <c r="D104">
-        <v>0.001486</v>
+        <v>0.000556</v>
       </c>
       <c r="F104">
-        <v>-0.249576</v>
+        <v>0.532676</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B105" t="s">
         <v>6</v>
@@ -2174,15 +2180,15 @@
         <v>0.000478</v>
       </c>
       <c r="D105">
-        <v>0.000317</v>
+        <v>0.000286</v>
       </c>
       <c r="F105">
-        <v>0.33664</v>
+        <v>0.401303</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B106" t="s">
         <v>6</v>
@@ -2191,15 +2197,15 @@
         <v>0.000209</v>
       </c>
       <c r="D106">
-        <v>6.999999999999999E-05</v>
+        <v>0.000123</v>
       </c>
       <c r="F106">
-        <v>0.6674870000000001</v>
+        <v>0.41013</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B107" t="s">
         <v>6</v>
@@ -2208,15 +2214,15 @@
         <v>9.2E-05</v>
       </c>
       <c r="D107">
-        <v>2.1E-05</v>
+        <v>7.2E-05</v>
       </c>
       <c r="F107">
-        <v>0.771019</v>
+        <v>0.217755</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B108" t="s">
         <v>6</v>
@@ -2225,15 +2231,15 @@
         <v>0.001768</v>
       </c>
       <c r="D108">
-        <v>0.001729</v>
+        <v>0.000973</v>
       </c>
       <c r="F108">
-        <v>0.022092</v>
+        <v>0.449644</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B109" t="s">
         <v>6</v>
@@ -2242,15 +2248,15 @@
         <v>0.001152</v>
       </c>
       <c r="D109">
-        <v>0.000403</v>
+        <v>0.000569</v>
       </c>
       <c r="F109">
-        <v>0.650409</v>
+        <v>0.505931</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B110" t="s">
         <v>6</v>
@@ -2259,15 +2265,15 @@
         <v>0.000589</v>
       </c>
       <c r="D110">
-        <v>0.000206</v>
+        <v>0.000347</v>
       </c>
       <c r="F110">
-        <v>0.650253</v>
+        <v>0.411375</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B111" t="s">
         <v>6</v>
@@ -2276,15 +2282,15 @@
         <v>0.000316</v>
       </c>
       <c r="D111">
-        <v>2.9E-05</v>
+        <v>0.000156</v>
       </c>
       <c r="F111">
-        <v>0.909407</v>
+        <v>0.506012</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B112" t="s">
         <v>6</v>
@@ -2293,15 +2299,15 @@
         <v>0.000124</v>
       </c>
       <c r="D112">
-        <v>1E-05</v>
+        <v>8.6E-05</v>
       </c>
       <c r="F112">
-        <v>0.921327</v>
+        <v>0.310371</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B113" t="s">
         <v>6</v>
@@ -2310,15 +2316,15 @@
         <v>0.001918</v>
       </c>
       <c r="D113">
-        <v>0.000859</v>
+        <v>0.001318</v>
       </c>
       <c r="F113">
-        <v>0.552184</v>
+        <v>0.312729</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B114" t="s">
         <v>6</v>
@@ -2327,15 +2333,15 @@
         <v>0.000922</v>
       </c>
       <c r="D114">
-        <v>0.000198</v>
+        <v>0.000529</v>
       </c>
       <c r="F114">
-        <v>0.785529</v>
+        <v>0.426288</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B115" t="s">
         <v>6</v>
@@ -2344,15 +2350,15 @@
         <v>0.000437</v>
       </c>
       <c r="D115">
-        <v>4.9E-05</v>
+        <v>0.000242</v>
       </c>
       <c r="F115">
-        <v>0.8883259999999999</v>
+        <v>0.44694</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B116" t="s">
         <v>6</v>
@@ -2361,15 +2367,15 @@
         <v>0.000184</v>
       </c>
       <c r="D116">
-        <v>1.3E-05</v>
+        <v>0.000121</v>
       </c>
       <c r="F116">
-        <v>0.932173</v>
+        <v>0.341852</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B117" t="s">
         <v>6</v>
@@ -2378,15 +2384,15 @@
         <v>9.7E-05</v>
       </c>
       <c r="D117">
-        <v>8E-06</v>
+        <v>7.1E-05</v>
       </c>
       <c r="F117">
-        <v>0.918889</v>
+        <v>0.26406</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B118" t="s">
         <v>6</v>
@@ -2395,15 +2401,15 @@
         <v>0.001221</v>
       </c>
       <c r="D118">
-        <v>0.00022</v>
+        <v>0.000614</v>
       </c>
       <c r="F118">
-        <v>0.819951</v>
+        <v>0.49678</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B119" t="s">
         <v>6</v>
@@ -2412,15 +2418,15 @@
         <v>0.000777</v>
       </c>
       <c r="D119">
-        <v>7.2E-05</v>
+        <v>0.000312</v>
       </c>
       <c r="F119">
-        <v>0.907924</v>
+        <v>0.597926</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B120" t="s">
         <v>6</v>
@@ -2429,15 +2435,15 @@
         <v>0.000466</v>
       </c>
       <c r="D120">
-        <v>2.3E-05</v>
+        <v>0.000187</v>
       </c>
       <c r="F120">
-        <v>0.950082</v>
+        <v>0.5994699999999999</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B121" t="s">
         <v>6</v>
@@ -2446,15 +2452,15 @@
         <v>0.0002</v>
       </c>
       <c r="D121">
-        <v>1E-05</v>
+        <v>9.3E-05</v>
       </c>
       <c r="F121">
-        <v>0.949308</v>
+        <v>0.533536</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B122" t="s">
         <v>6</v>
@@ -2463,15 +2469,15 @@
         <v>0.001881</v>
       </c>
       <c r="D122">
-        <v>0.000362</v>
+        <v>0.00092</v>
       </c>
       <c r="F122">
-        <v>0.807377</v>
+        <v>0.510653</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B123" t="s">
         <v>6</v>
@@ -2480,15 +2486,15 @@
         <v>0.001165</v>
       </c>
       <c r="D123">
-        <v>0.000118</v>
+        <v>0.000451</v>
       </c>
       <c r="F123">
-        <v>0.898576</v>
+        <v>0.612661</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B124" t="s">
         <v>6</v>
@@ -2497,15 +2503,15 @@
         <v>0.000675</v>
       </c>
       <c r="D124">
-        <v>4.4E-05</v>
+        <v>0.000263</v>
       </c>
       <c r="F124">
-        <v>0.935318</v>
+        <v>0.609934</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B125" t="s">
         <v>6</v>
@@ -2514,15 +2520,15 @@
         <v>0.000286</v>
       </c>
       <c r="D125">
-        <v>1.8E-05</v>
+        <v>0.000131</v>
       </c>
       <c r="F125">
-        <v>0.9360039999999999</v>
+        <v>0.541834</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B126" t="s">
         <v>6</v>
@@ -2531,15 +2537,15 @@
         <v>0.002536</v>
       </c>
       <c r="D126">
-        <v>0.000598</v>
+        <v>0.001372</v>
       </c>
       <c r="F126">
-        <v>0.76403</v>
+        <v>0.458913</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B127" t="s">
         <v>6</v>
@@ -2548,15 +2554,15 @@
         <v>0.001629</v>
       </c>
       <c r="D127">
-        <v>0.00025</v>
+        <v>0.000782</v>
       </c>
       <c r="F127">
-        <v>0.846283</v>
+        <v>0.5202329999999999</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B128" t="s">
         <v>6</v>
@@ -2565,15 +2571,15 @@
         <v>0.000985</v>
       </c>
       <c r="D128">
-        <v>0.000114</v>
+        <v>0.000448</v>
       </c>
       <c r="F128">
-        <v>0.884709</v>
+        <v>0.545556</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B129" t="s">
         <v>6</v>
@@ -2582,10 +2588,10 @@
         <v>0.000455</v>
       </c>
       <c r="D129">
-        <v>5.2E-05</v>
+        <v>0.000258</v>
       </c>
       <c r="F129">
-        <v>0.886045</v>
+        <v>0.431951</v>
       </c>
     </row>
   </sheetData>
